--- a/Code/Results/Cases/Case_0_64/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_64/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.1605587929459</v>
+        <v>13.5021029201832</v>
       </c>
       <c r="D2">
-        <v>4.043253955223265</v>
+        <v>5.671995549209638</v>
       </c>
       <c r="E2">
-        <v>11.36763118185174</v>
+        <v>13.87812280381266</v>
       </c>
       <c r="F2">
-        <v>22.42137141293739</v>
+        <v>28.95260332316069</v>
       </c>
       <c r="G2">
-        <v>2.076198874809176</v>
+        <v>3.656587908909558</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.91684588162405</v>
+        <v>16.16283972534575</v>
       </c>
       <c r="L2">
-        <v>6.040155212928185</v>
+        <v>9.264634646378475</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.03558139305832</v>
+        <v>17.47287962592588</v>
       </c>
       <c r="O2">
-        <v>17.83534729406358</v>
+        <v>25.80717117088754</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>11.55614440992884</v>
+        <v>13.40641848683153</v>
       </c>
       <c r="D3">
-        <v>4.011391154923931</v>
+        <v>5.66383323277018</v>
       </c>
       <c r="E3">
-        <v>10.87470537469619</v>
+        <v>13.82006443092378</v>
       </c>
       <c r="F3">
-        <v>21.69580284834809</v>
+        <v>28.94217564587153</v>
       </c>
       <c r="G3">
-        <v>2.082932311989715</v>
+        <v>3.659122450589753</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.51693271288848</v>
+        <v>15.71195715206656</v>
       </c>
       <c r="L3">
-        <v>5.913580834941435</v>
+        <v>9.268045469743365</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.15997730712574</v>
+        <v>17.51876110098909</v>
       </c>
       <c r="O3">
-        <v>17.49560089670627</v>
+        <v>25.85783259520933</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>11.17752938872123</v>
+        <v>13.35079451305244</v>
       </c>
       <c r="D4">
-        <v>3.991751763435186</v>
+        <v>5.658875181420108</v>
       </c>
       <c r="E4">
-        <v>10.5689881290163</v>
+        <v>13.78758565454162</v>
       </c>
       <c r="F4">
-        <v>21.2641241861774</v>
+        <v>28.94472175422284</v>
       </c>
       <c r="G4">
-        <v>2.087184763904355</v>
+        <v>3.660760630524446</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.60749467746945</v>
+        <v>15.43065164442201</v>
       </c>
       <c r="L4">
-        <v>5.838283057031054</v>
+        <v>9.271696028239642</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.2401723544431</v>
+        <v>17.54882500812048</v>
       </c>
       <c r="O4">
-        <v>17.30450506828972</v>
+        <v>25.89592563625709</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>11.02155083651726</v>
+        <v>13.32893417067858</v>
       </c>
       <c r="D5">
-        <v>3.983734211747547</v>
+        <v>5.656868821568107</v>
       </c>
       <c r="E5">
-        <v>10.44380489830393</v>
+        <v>13.77515692868987</v>
       </c>
       <c r="F5">
-        <v>21.09185436473035</v>
+        <v>28.94800681638604</v>
       </c>
       <c r="G5">
-        <v>2.088948359359769</v>
+        <v>3.661448881119225</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>18.22426779381671</v>
+        <v>15.31506620340165</v>
       </c>
       <c r="L5">
-        <v>5.808225142084857</v>
+        <v>9.273575238775885</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.27379679149199</v>
+        <v>17.56155301327738</v>
       </c>
       <c r="O5">
-        <v>17.23096937633703</v>
+        <v>25.91319918704575</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.99555505804593</v>
+        <v>13.32535358554466</v>
       </c>
       <c r="D6">
-        <v>3.982402175164478</v>
+        <v>5.656536535221745</v>
       </c>
       <c r="E6">
-        <v>10.42298736045939</v>
+        <v>13.77314212945512</v>
       </c>
       <c r="F6">
-        <v>21.06347391538288</v>
+        <v>28.94868792564225</v>
       </c>
       <c r="G6">
-        <v>2.089243084425052</v>
+        <v>3.661564415599606</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>18.15986860508283</v>
+        <v>15.29582107461559</v>
       </c>
       <c r="L6">
-        <v>5.803272407014849</v>
+        <v>9.273910934922609</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.27943673122371</v>
+        <v>17.56369530641227</v>
       </c>
       <c r="O6">
-        <v>17.2190185742508</v>
+        <v>25.91617295956658</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>11.17543236507379</v>
+        <v>13.35049640361146</v>
       </c>
       <c r="D7">
-        <v>3.991643687775355</v>
+        <v>5.658848065142763</v>
       </c>
       <c r="E7">
-        <v>10.56730205922938</v>
+        <v>13.78741475833352</v>
       </c>
       <c r="F7">
-        <v>21.26178592736844</v>
+        <v>28.94475696273543</v>
       </c>
       <c r="G7">
-        <v>2.087208422846788</v>
+        <v>3.660769828692342</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.6023775596642</v>
+        <v>15.42909643670925</v>
       </c>
       <c r="L7">
-        <v>5.837875125101905</v>
+        <v>9.271719786232428</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.24062202048099</v>
+        <v>17.54899473112698</v>
       </c>
       <c r="O7">
-        <v>17.30349587634561</v>
+        <v>25.89615151554627</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>11.95382137699329</v>
+        <v>13.46847482466085</v>
       </c>
       <c r="D8">
-        <v>4.032286080030575</v>
+        <v>5.669170405901534</v>
       </c>
       <c r="E8">
-        <v>11.19839923653144</v>
+        <v>13.85745262397417</v>
       </c>
       <c r="F8">
-        <v>22.16842640198123</v>
+        <v>28.94714946029437</v>
       </c>
       <c r="G8">
-        <v>2.078496667702294</v>
+        <v>3.657444849575098</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20.4444602918502</v>
+        <v>16.0084006604178</v>
       </c>
       <c r="L8">
-        <v>5.996021225769009</v>
+        <v>9.265487864698271</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.07767151623152</v>
+        <v>17.48830726877335</v>
       </c>
       <c r="O8">
-        <v>17.71453374091235</v>
+        <v>25.82318537872062</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.41378285788558</v>
+        <v>13.72366370511981</v>
       </c>
       <c r="D9">
-        <v>4.111190688734388</v>
+        <v>5.689812545538047</v>
       </c>
       <c r="E9">
-        <v>12.40549623329011</v>
+        <v>14.01946960210077</v>
       </c>
       <c r="F9">
-        <v>24.04891973829371</v>
+        <v>29.02288467992739</v>
       </c>
       <c r="G9">
-        <v>2.062302097956021</v>
+        <v>3.651571742874673</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.6647897188649</v>
+        <v>17.10205645014181</v>
       </c>
       <c r="L9">
-        <v>6.324553396776868</v>
+        <v>9.265601174507337</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.78918212271662</v>
+        <v>17.38427867137146</v>
       </c>
       <c r="O9">
-        <v>18.66175580112949</v>
+        <v>25.73580267642385</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>14.43889187309368</v>
+        <v>13.924287890285</v>
       </c>
       <c r="D10">
-        <v>4.168428771853132</v>
+        <v>5.705188832108661</v>
       </c>
       <c r="E10">
-        <v>13.26714435339843</v>
+        <v>14.15284332746969</v>
       </c>
       <c r="F10">
-        <v>25.48448276855804</v>
+        <v>29.12177037061203</v>
       </c>
       <c r="G10">
-        <v>2.050874287042483</v>
+        <v>3.647646881822344</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.79746521037277</v>
+        <v>17.87123050880141</v>
       </c>
       <c r="L10">
-        <v>6.576175970947753</v>
+        <v>9.273178019919971</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.59741675533405</v>
+        <v>17.31693111308071</v>
       </c>
       <c r="O10">
-        <v>19.44612645177289</v>
+        <v>25.70588813583062</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>14.8940317691756</v>
+        <v>14.01809134540233</v>
       </c>
       <c r="D11">
-        <v>4.194260151430685</v>
+        <v>5.712222504178399</v>
       </c>
       <c r="E11">
-        <v>13.65272840685032</v>
+        <v>14.21646332253239</v>
       </c>
       <c r="F11">
-        <v>26.14786504410733</v>
+        <v>29.1760902204844</v>
       </c>
       <c r="G11">
-        <v>2.045760278642322</v>
+        <v>3.645945128302705</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.71834572019175</v>
+        <v>18.21212497195892</v>
       </c>
       <c r="L11">
-        <v>6.692703945164675</v>
+        <v>9.278243853231302</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.51489537183612</v>
+        <v>17.28825502815365</v>
       </c>
       <c r="O11">
-        <v>19.82254678441427</v>
+        <v>25.69977976975739</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>15.06473272293023</v>
+        <v>14.05394937824802</v>
       </c>
       <c r="D12">
-        <v>4.204008342846387</v>
+        <v>5.714890940775568</v>
       </c>
       <c r="E12">
-        <v>13.79777282283216</v>
+        <v>14.24096287261803</v>
       </c>
       <c r="F12">
-        <v>26.4004740653359</v>
+        <v>29.19799423871182</v>
       </c>
       <c r="G12">
-        <v>2.043834331621341</v>
+        <v>3.645312680760316</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>27.06008783555177</v>
+        <v>18.33980260067799</v>
       </c>
       <c r="L12">
-        <v>6.737116313407435</v>
+        <v>9.280394003658303</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.48435747973263</v>
+        <v>17.27767735639168</v>
       </c>
       <c r="O12">
-        <v>19.96793543597489</v>
+        <v>25.6985484684655</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>15.02804304207538</v>
+        <v>14.04621219152628</v>
       </c>
       <c r="D13">
-        <v>4.201910448223112</v>
+        <v>5.714316036128453</v>
       </c>
       <c r="E13">
-        <v>13.76657852563742</v>
+        <v>14.23566856839892</v>
       </c>
       <c r="F13">
-        <v>26.34600892729549</v>
+        <v>29.19321762754586</v>
       </c>
       <c r="G13">
-        <v>2.044248672572539</v>
+        <v>3.645448358322838</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.98679593266233</v>
+        <v>18.31236946242504</v>
       </c>
       <c r="L13">
-        <v>6.7275387410387</v>
+        <v>9.279920637014966</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.49090215466746</v>
+        <v>17.27994294391954</v>
       </c>
       <c r="O13">
-        <v>19.93649630926973</v>
+        <v>25.69876549308464</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>14.90810867500142</v>
+        <v>14.02103482366224</v>
       </c>
       <c r="D14">
-        <v>4.195062835477097</v>
+        <v>5.712441942892081</v>
       </c>
       <c r="E14">
-        <v>13.66468090558055</v>
+        <v>14.21847083085117</v>
       </c>
       <c r="F14">
-        <v>26.16861964907761</v>
+        <v>29.17786559102387</v>
       </c>
       <c r="G14">
-        <v>2.04560162635236</v>
+        <v>3.645892856940917</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.74660018121493</v>
+        <v>18.22265800801623</v>
       </c>
       <c r="L14">
-        <v>6.696352100111238</v>
+        <v>9.278416107412447</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.51236854187551</v>
+        <v>17.28737916162664</v>
       </c>
       <c r="O14">
-        <v>19.83445077759489</v>
+        <v>25.69965677263351</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>14.83442961823305</v>
+        <v>14.00565595653415</v>
       </c>
       <c r="D15">
-        <v>4.190863989858291</v>
+        <v>5.711294630083982</v>
       </c>
       <c r="E15">
-        <v>13.60213850922904</v>
+        <v>14.207989376267</v>
       </c>
       <c r="F15">
-        <v>26.06014398271377</v>
+        <v>29.16863550684098</v>
       </c>
       <c r="G15">
-        <v>2.046431684209137</v>
+        <v>3.646166682071583</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.59856838616462</v>
+        <v>18.16752003731848</v>
       </c>
       <c r="L15">
-        <v>6.677286332896753</v>
+        <v>9.277524698597668</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.52561100179319</v>
+        <v>17.29197068096161</v>
       </c>
       <c r="O15">
-        <v>19.77231651397805</v>
+        <v>25.70034367526362</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>14.40891815235925</v>
+        <v>13.91820628664606</v>
       </c>
       <c r="D16">
-        <v>4.16673613527971</v>
+        <v>5.70472989200896</v>
       </c>
       <c r="E16">
-        <v>13.24181230902642</v>
+        <v>14.14874358936847</v>
       </c>
       <c r="F16">
-        <v>25.44132912576847</v>
+        <v>29.11840764893252</v>
       </c>
       <c r="G16">
-        <v>2.05121007217826</v>
+        <v>3.647759773877465</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.73630116519699</v>
+        <v>17.84876079682871</v>
       </c>
       <c r="L16">
-        <v>6.568601096541035</v>
+        <v>9.272879454428832</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.60290732662006</v>
+        <v>17.31884456416005</v>
       </c>
       <c r="O16">
-        <v>19.42192325260852</v>
+        <v>25.70643855150437</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>14.14497769169123</v>
+        <v>13.86518895484645</v>
       </c>
       <c r="D17">
-        <v>4.151878723081045</v>
+        <v>5.70071213848678</v>
       </c>
       <c r="E17">
-        <v>13.01908639911299</v>
+        <v>14.11314215866253</v>
       </c>
       <c r="F17">
-        <v>25.0642829251314</v>
+        <v>29.0899804798113</v>
       </c>
       <c r="G17">
-        <v>2.05416205921957</v>
+        <v>3.648758472075849</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>25.1947825531729</v>
+        <v>17.65081899595524</v>
       </c>
       <c r="L17">
-        <v>6.502445819510331</v>
+        <v>9.27044377486413</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.65155580172564</v>
+        <v>17.3358325568231</v>
       </c>
       <c r="O17">
-        <v>19.21200817122843</v>
+        <v>25.71210108204834</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.99211401888386</v>
+        <v>13.83493546355751</v>
       </c>
       <c r="D18">
-        <v>4.143313910764705</v>
+        <v>5.69840493602367</v>
       </c>
       <c r="E18">
-        <v>12.89038104755074</v>
+        <v>14.09294359924058</v>
       </c>
       <c r="F18">
-        <v>24.84839224243458</v>
+        <v>29.07450932031128</v>
       </c>
       <c r="G18">
-        <v>2.055868023045455</v>
+        <v>3.649340777548811</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.87866941519446</v>
+        <v>17.53612659767329</v>
       </c>
       <c r="L18">
-        <v>6.464589745995378</v>
+        <v>9.269195301476504</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.67997854711447</v>
+        <v>17.34578818146034</v>
       </c>
       <c r="O18">
-        <v>19.09311430957308</v>
+        <v>25.71606379660227</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.94017798415949</v>
+        <v>13.824734340916</v>
       </c>
       <c r="D19">
-        <v>4.140410834536921</v>
+        <v>5.697624412984551</v>
       </c>
       <c r="E19">
-        <v>12.84670257063463</v>
+        <v>14.08615300638279</v>
       </c>
       <c r="F19">
-        <v>24.77546618113032</v>
+        <v>29.06942230772481</v>
       </c>
       <c r="G19">
-        <v>2.056447062117482</v>
+        <v>3.64953929165957</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.77083770131241</v>
+        <v>17.49715292790915</v>
       </c>
       <c r="L19">
-        <v>6.451806161937918</v>
+        <v>9.26879880372184</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.68967686867465</v>
+        <v>17.34919070553982</v>
       </c>
       <c r="O19">
-        <v>19.05317478775617</v>
+        <v>25.71752660740246</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>14.17318387357613</v>
+        <v>13.87080803468086</v>
       </c>
       <c r="D20">
-        <v>4.153462338499801</v>
+        <v>5.701139456705963</v>
       </c>
       <c r="E20">
-        <v>13.04285840744984</v>
+        <v>14.1169032862849</v>
       </c>
       <c r="F20">
-        <v>25.10431981488461</v>
+        <v>29.09291563973115</v>
       </c>
       <c r="G20">
-        <v>2.053846991848443</v>
+        <v>3.648651343791997</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>25.25290818566566</v>
+        <v>17.67197821149468</v>
       </c>
       <c r="L20">
-        <v>6.509468103022943</v>
+        <v>9.27068728427772</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.64633117418728</v>
+        <v>17.3340050570213</v>
       </c>
       <c r="O20">
-        <v>19.23416298640262</v>
+        <v>25.71142522411711</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>14.94338131820429</v>
+        <v>14.02842111755956</v>
       </c>
       <c r="D21">
-        <v>4.197075086552206</v>
+        <v>5.712992280764224</v>
       </c>
       <c r="E21">
-        <v>13.69463726593814</v>
+        <v>14.22351127900741</v>
       </c>
       <c r="F21">
-        <v>26.22068569493227</v>
+        <v>29.18233872047874</v>
       </c>
       <c r="G21">
-        <v>2.045203955845185</v>
+        <v>3.645761972581509</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.81733987960672</v>
+        <v>18.24904762374977</v>
       </c>
       <c r="L21">
-        <v>6.70550468623964</v>
+        <v>9.278851741096931</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.50604375557467</v>
+        <v>17.28518733342486</v>
       </c>
       <c r="O21">
-        <v>19.86434653325256</v>
+        <v>25.69936559975084</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>15.43712601256973</v>
+        <v>14.13337942232257</v>
       </c>
       <c r="D22">
-        <v>4.225381155568069</v>
+        <v>5.720767259184653</v>
       </c>
       <c r="E22">
-        <v>14.11496275899058</v>
+        <v>14.29555627801474</v>
       </c>
       <c r="F22">
-        <v>26.95844256779903</v>
+        <v>29.24855376970643</v>
       </c>
       <c r="G22">
-        <v>2.039616301558457</v>
+        <v>3.64394333983695</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.79918579566816</v>
+        <v>18.61792103918674</v>
       </c>
       <c r="L22">
-        <v>6.835289228532885</v>
+        <v>9.285538399093815</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.41852168462353</v>
+        <v>17.25492172857994</v>
       </c>
       <c r="O22">
-        <v>20.29281601739254</v>
+        <v>25.69779050567092</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>15.17449341400555</v>
+        <v>14.07719235962186</v>
       </c>
       <c r="D23">
-        <v>4.210292941900833</v>
+        <v>5.716615220111991</v>
       </c>
       <c r="E23">
-        <v>13.89115501255284</v>
+        <v>14.25689302064259</v>
       </c>
       <c r="F23">
-        <v>26.5639622486959</v>
+        <v>29.21250567372233</v>
       </c>
       <c r="G23">
-        <v>2.042593495127789</v>
+        <v>3.644907618420558</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.27883233661206</v>
+        <v>18.42183914914893</v>
       </c>
       <c r="L23">
-        <v>6.765871208561103</v>
+        <v>9.281846379884163</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.46484070262893</v>
+        <v>17.27092521999594</v>
       </c>
       <c r="O23">
-        <v>20.06260376755085</v>
+        <v>25.69805321691519</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>14.16043534628153</v>
+        <v>13.86826693985713</v>
       </c>
       <c r="D24">
-        <v>4.15274645758442</v>
+        <v>5.700946257784739</v>
       </c>
       <c r="E24">
-        <v>13.03211312565437</v>
+        <v>14.115202040853</v>
       </c>
       <c r="F24">
-        <v>25.08621639467771</v>
+        <v>29.09158593702509</v>
       </c>
       <c r="G24">
-        <v>2.053989406197615</v>
+        <v>3.648699751126379</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.22664450562179</v>
+        <v>17.66241490270146</v>
       </c>
       <c r="L24">
-        <v>6.506292774960963</v>
+        <v>9.27057672065898</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.64869181638033</v>
+        <v>17.33483068087679</v>
       </c>
       <c r="O24">
-        <v>19.22414122372061</v>
+        <v>25.71172857662171</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.0267772628424</v>
+        <v>13.65221614420454</v>
       </c>
       <c r="D25">
-        <v>4.089956361333855</v>
+        <v>5.684188903628498</v>
       </c>
       <c r="E25">
-        <v>12.08297993682624</v>
+        <v>13.97306688076373</v>
       </c>
       <c r="F25">
-        <v>23.53015943242657</v>
+        <v>28.99478963386195</v>
       </c>
       <c r="G25">
-        <v>2.066595056740532</v>
+        <v>3.653091748678894</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.83500495924285</v>
+        <v>16.81165240486593</v>
       </c>
       <c r="L25">
-        <v>6.233811433279991</v>
+        <v>9.26425215446756</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.86378263147058</v>
+        <v>17.41082274125345</v>
       </c>
       <c r="O25">
-        <v>18.39011351759429</v>
+        <v>25.75344205684616</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_64/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_64/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.5021029201832</v>
+        <v>12.16055879294585</v>
       </c>
       <c r="D2">
-        <v>5.671995549209638</v>
+        <v>4.04325395522332</v>
       </c>
       <c r="E2">
-        <v>13.87812280381266</v>
+        <v>11.36763118185176</v>
       </c>
       <c r="F2">
-        <v>28.95260332316069</v>
+        <v>22.42137141293739</v>
       </c>
       <c r="G2">
-        <v>3.656587908909558</v>
+        <v>2.076198874809311</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.16283972534575</v>
+        <v>20.91684588162404</v>
       </c>
       <c r="L2">
-        <v>9.264634646378475</v>
+        <v>6.040155212928239</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.47287962592588</v>
+        <v>12.03558139305832</v>
       </c>
       <c r="O2">
-        <v>25.80717117088754</v>
+        <v>17.8353472940636</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.40641848683153</v>
+        <v>11.55614440992874</v>
       </c>
       <c r="D3">
-        <v>5.66383323277018</v>
+        <v>4.011391154924068</v>
       </c>
       <c r="E3">
-        <v>13.82006443092378</v>
+        <v>10.87470537469614</v>
       </c>
       <c r="F3">
-        <v>28.94217564587153</v>
+        <v>21.69580284834795</v>
       </c>
       <c r="G3">
-        <v>3.659122450589753</v>
+        <v>2.082932311989715</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.71195715206656</v>
+        <v>19.51693271288851</v>
       </c>
       <c r="L3">
-        <v>9.268045469743365</v>
+        <v>5.913580834941393</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.51876110098909</v>
+        <v>12.15997730712572</v>
       </c>
       <c r="O3">
-        <v>25.85783259520933</v>
+        <v>17.49560089670616</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13.35079451305244</v>
+        <v>11.17752938872115</v>
       </c>
       <c r="D4">
-        <v>5.658875181420108</v>
+        <v>3.991751763435123</v>
       </c>
       <c r="E4">
-        <v>13.78758565454162</v>
+        <v>10.56898812901626</v>
       </c>
       <c r="F4">
-        <v>28.94472175422284</v>
+        <v>21.2641241861774</v>
       </c>
       <c r="G4">
-        <v>3.660760630524446</v>
+        <v>2.087184763904622</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.43065164442201</v>
+        <v>18.60749467746941</v>
       </c>
       <c r="L4">
-        <v>9.271696028239642</v>
+        <v>5.838283057031046</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.54882500812048</v>
+        <v>12.24017235444311</v>
       </c>
       <c r="O4">
-        <v>25.89592563625709</v>
+        <v>17.30450506828972</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.32893417067858</v>
+        <v>11.02155083651734</v>
       </c>
       <c r="D5">
-        <v>5.656868821568107</v>
+        <v>3.983734211747787</v>
       </c>
       <c r="E5">
-        <v>13.77515692868987</v>
+        <v>10.44380489830401</v>
       </c>
       <c r="F5">
-        <v>28.94800681638604</v>
+        <v>21.09185436473038</v>
       </c>
       <c r="G5">
-        <v>3.661448881119225</v>
+        <v>2.088948359359635</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.31506620340165</v>
+        <v>18.22426779381672</v>
       </c>
       <c r="L5">
-        <v>9.273575238775885</v>
+        <v>5.808225142084972</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.56155301327738</v>
+        <v>12.27379679149201</v>
       </c>
       <c r="O5">
-        <v>25.91319918704575</v>
+        <v>17.23096937633712</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.32535358554466</v>
+        <v>10.99555505804591</v>
       </c>
       <c r="D6">
-        <v>5.656536535221745</v>
+        <v>3.982402175164605</v>
       </c>
       <c r="E6">
-        <v>13.77314212945512</v>
+        <v>10.42298736045938</v>
       </c>
       <c r="F6">
-        <v>28.94868792564225</v>
+        <v>21.06347391538265</v>
       </c>
       <c r="G6">
-        <v>3.661564415599606</v>
+        <v>2.089243084424918</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.29582107461559</v>
+        <v>18.15986860508292</v>
       </c>
       <c r="L6">
-        <v>9.273910934922609</v>
+        <v>5.803272407014856</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.56369530641227</v>
+        <v>12.27943673122368</v>
       </c>
       <c r="O6">
-        <v>25.91617295956658</v>
+        <v>17.21901857425064</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.35049640361146</v>
+        <v>11.17543236507383</v>
       </c>
       <c r="D7">
-        <v>5.658848065142763</v>
+        <v>3.991643687775355</v>
       </c>
       <c r="E7">
-        <v>13.78741475833352</v>
+        <v>10.56730205922937</v>
       </c>
       <c r="F7">
-        <v>28.94475696273543</v>
+        <v>21.26178592736825</v>
       </c>
       <c r="G7">
-        <v>3.660769828692342</v>
+        <v>2.087208422846788</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.42909643670925</v>
+        <v>18.60237755966428</v>
       </c>
       <c r="L7">
-        <v>9.271719786232428</v>
+        <v>5.83787512510189</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.54899473112698</v>
+        <v>12.24062202048093</v>
       </c>
       <c r="O7">
-        <v>25.89615151554627</v>
+        <v>17.30349587634541</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.46847482466085</v>
+        <v>11.95382137699331</v>
       </c>
       <c r="D8">
-        <v>5.669170405901534</v>
+        <v>4.032286080030515</v>
       </c>
       <c r="E8">
-        <v>13.85745262397417</v>
+        <v>11.19839923653143</v>
       </c>
       <c r="F8">
-        <v>28.94714946029437</v>
+        <v>22.16842640198115</v>
       </c>
       <c r="G8">
-        <v>3.657444849575098</v>
+        <v>2.078496667702027</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.0084006604178</v>
+        <v>20.44446029185022</v>
       </c>
       <c r="L8">
-        <v>9.265487864698271</v>
+        <v>5.996021225768948</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.48830726877335</v>
+        <v>12.07767151623153</v>
       </c>
       <c r="O8">
-        <v>25.82318537872062</v>
+        <v>17.7145337409123</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.72366370511981</v>
+        <v>13.41378285788562</v>
       </c>
       <c r="D9">
-        <v>5.689812545538047</v>
+        <v>4.111190688734203</v>
       </c>
       <c r="E9">
-        <v>14.01946960210077</v>
+        <v>12.40549623329015</v>
       </c>
       <c r="F9">
-        <v>29.02288467992739</v>
+        <v>24.0489197382937</v>
       </c>
       <c r="G9">
-        <v>3.651571742874673</v>
+        <v>2.062302097956155</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.10205645014181</v>
+        <v>23.66478971886491</v>
       </c>
       <c r="L9">
-        <v>9.265601174507337</v>
+        <v>6.324553396776919</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.38427867137146</v>
+        <v>11.78918212271655</v>
       </c>
       <c r="O9">
-        <v>25.73580267642385</v>
+        <v>18.66175580112944</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.924287890285</v>
+        <v>14.43889187309365</v>
       </c>
       <c r="D10">
-        <v>5.705188832108661</v>
+        <v>4.168428771853323</v>
       </c>
       <c r="E10">
-        <v>14.15284332746969</v>
+        <v>13.2671443533984</v>
       </c>
       <c r="F10">
-        <v>29.12177037061203</v>
+        <v>25.48448276855795</v>
       </c>
       <c r="G10">
-        <v>3.647646881822344</v>
+        <v>2.050874287042081</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.87123050880141</v>
+        <v>25.79746521037278</v>
       </c>
       <c r="L10">
-        <v>9.273178019919971</v>
+        <v>6.576175970947762</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.31693111308071</v>
+        <v>11.59741675533402</v>
       </c>
       <c r="O10">
-        <v>25.70588813583062</v>
+        <v>19.44612645177281</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>14.01809134540233</v>
+        <v>14.89403176917562</v>
       </c>
       <c r="D11">
-        <v>5.712222504178399</v>
+        <v>4.194260151430639</v>
       </c>
       <c r="E11">
-        <v>14.21646332253239</v>
+        <v>13.65272840685033</v>
       </c>
       <c r="F11">
-        <v>29.1760902204844</v>
+        <v>26.14786504410732</v>
       </c>
       <c r="G11">
-        <v>3.645945128302705</v>
+        <v>2.045760278642455</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.21212497195892</v>
+        <v>26.71834572019182</v>
       </c>
       <c r="L11">
-        <v>9.278243853231302</v>
+        <v>6.692703945164665</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.28825502815365</v>
+        <v>11.51489537183605</v>
       </c>
       <c r="O11">
-        <v>25.69977976975739</v>
+        <v>19.82254678441423</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>14.05394937824802</v>
+        <v>15.06473272293026</v>
       </c>
       <c r="D12">
-        <v>5.714890940775568</v>
+        <v>4.204008342846501</v>
       </c>
       <c r="E12">
-        <v>14.24096287261803</v>
+        <v>13.79777282283217</v>
       </c>
       <c r="F12">
-        <v>29.19799423871182</v>
+        <v>26.40047406533585</v>
       </c>
       <c r="G12">
-        <v>3.645312680760316</v>
+        <v>2.043834331621207</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>18.33980260067799</v>
+        <v>27.06008783555183</v>
       </c>
       <c r="L12">
-        <v>9.280394003658303</v>
+        <v>6.737116313407459</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.27767735639168</v>
+        <v>11.48435747973263</v>
       </c>
       <c r="O12">
-        <v>25.6985484684655</v>
+        <v>19.96793543597484</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>14.04621219152628</v>
+        <v>15.02804304207542</v>
       </c>
       <c r="D13">
-        <v>5.714316036128453</v>
+        <v>4.201910448223112</v>
       </c>
       <c r="E13">
-        <v>14.23566856839892</v>
+        <v>13.76657852563743</v>
       </c>
       <c r="F13">
-        <v>29.19321762754586</v>
+        <v>26.34600892729548</v>
       </c>
       <c r="G13">
-        <v>3.645448358322838</v>
+        <v>2.04424867257254</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.31236946242504</v>
+        <v>26.98679593266239</v>
       </c>
       <c r="L13">
-        <v>9.279920637014966</v>
+        <v>6.727538741038703</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.27994294391954</v>
+        <v>11.4909021546675</v>
       </c>
       <c r="O13">
-        <v>25.69876549308464</v>
+        <v>19.9364963092697</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>14.02103482366224</v>
+        <v>14.90810867500138</v>
       </c>
       <c r="D14">
-        <v>5.712441942892081</v>
+        <v>4.195062835477037</v>
       </c>
       <c r="E14">
-        <v>14.21847083085117</v>
+        <v>13.66468090558053</v>
       </c>
       <c r="F14">
-        <v>29.17786559102387</v>
+        <v>26.16861964907763</v>
       </c>
       <c r="G14">
-        <v>3.645892856940917</v>
+        <v>2.045601626352224</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.22265800801623</v>
+        <v>26.74660018121495</v>
       </c>
       <c r="L14">
-        <v>9.278416107412447</v>
+        <v>6.696352100111275</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.28737916162664</v>
+        <v>11.51236854187554</v>
       </c>
       <c r="O14">
-        <v>25.69965677263351</v>
+        <v>19.83445077759491</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>14.00565595653415</v>
+        <v>14.83442961823304</v>
       </c>
       <c r="D15">
-        <v>5.711294630083982</v>
+        <v>4.190863989858185</v>
       </c>
       <c r="E15">
-        <v>14.207989376267</v>
+        <v>13.60213850922906</v>
       </c>
       <c r="F15">
-        <v>29.16863550684098</v>
+        <v>26.06014398271375</v>
       </c>
       <c r="G15">
-        <v>3.646166682071583</v>
+        <v>2.046431684209271</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.16752003731848</v>
+        <v>26.59856838616467</v>
       </c>
       <c r="L15">
-        <v>9.277524698597668</v>
+        <v>6.67728633289677</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.29197068096161</v>
+        <v>11.52561100179313</v>
       </c>
       <c r="O15">
-        <v>25.70034367526362</v>
+        <v>19.77231651397799</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.91820628664606</v>
+        <v>14.40891815235925</v>
       </c>
       <c r="D16">
-        <v>5.70472989200896</v>
+        <v>4.1667361352797</v>
       </c>
       <c r="E16">
-        <v>14.14874358936847</v>
+        <v>13.24181230902644</v>
       </c>
       <c r="F16">
-        <v>29.11840764893252</v>
+        <v>25.44132912576847</v>
       </c>
       <c r="G16">
-        <v>3.647759773877465</v>
+        <v>2.051210072178661</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.84876079682871</v>
+        <v>25.73630116519699</v>
       </c>
       <c r="L16">
-        <v>9.272879454428832</v>
+        <v>6.568601096541006</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.31884456416005</v>
+        <v>11.60290732662006</v>
       </c>
       <c r="O16">
-        <v>25.70643855150437</v>
+        <v>19.42192325260852</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.86518895484645</v>
+        <v>14.1449776916912</v>
       </c>
       <c r="D17">
-        <v>5.70071213848678</v>
+        <v>4.151878723080879</v>
       </c>
       <c r="E17">
-        <v>14.11314215866253</v>
+        <v>13.019086399113</v>
       </c>
       <c r="F17">
-        <v>29.0899804798113</v>
+        <v>25.06428292513132</v>
       </c>
       <c r="G17">
-        <v>3.648758472075849</v>
+        <v>2.054162059219568</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.65081899595524</v>
+        <v>25.19478255317297</v>
       </c>
       <c r="L17">
-        <v>9.27044377486413</v>
+        <v>6.502445819510331</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.3358325568231</v>
+        <v>11.65155580172557</v>
       </c>
       <c r="O17">
-        <v>25.71210108204834</v>
+        <v>19.21200817122833</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.83493546355751</v>
+        <v>13.99211401888384</v>
       </c>
       <c r="D18">
-        <v>5.69840493602367</v>
+        <v>4.143313910764719</v>
       </c>
       <c r="E18">
-        <v>14.09294359924058</v>
+        <v>12.89038104755073</v>
       </c>
       <c r="F18">
-        <v>29.07450932031128</v>
+        <v>24.84839224243452</v>
       </c>
       <c r="G18">
-        <v>3.649340777548811</v>
+        <v>2.055868023045192</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.53612659767329</v>
+        <v>24.87866941519455</v>
       </c>
       <c r="L18">
-        <v>9.269195301476504</v>
+        <v>6.46458974599536</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.34578818146034</v>
+        <v>11.67997854711434</v>
       </c>
       <c r="O18">
-        <v>25.71606379660227</v>
+        <v>19.09311430957298</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.824734340916</v>
+        <v>13.94017798415952</v>
       </c>
       <c r="D19">
-        <v>5.697624412984551</v>
+        <v>4.140410834536973</v>
       </c>
       <c r="E19">
-        <v>14.08615300638279</v>
+        <v>12.84670257063465</v>
       </c>
       <c r="F19">
-        <v>29.06942230772481</v>
+        <v>24.77546618113029</v>
       </c>
       <c r="G19">
-        <v>3.64953929165957</v>
+        <v>2.056447062117615</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.49715292790915</v>
+        <v>24.7708377013124</v>
       </c>
       <c r="L19">
-        <v>9.26879880372184</v>
+        <v>6.451806161937938</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.34919070553982</v>
+        <v>11.68967686867461</v>
       </c>
       <c r="O19">
-        <v>25.71752660740246</v>
+        <v>19.05317478775616</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.87080803468086</v>
+        <v>14.17318387357611</v>
       </c>
       <c r="D20">
-        <v>5.701139456705963</v>
+        <v>4.153462338499793</v>
       </c>
       <c r="E20">
-        <v>14.1169032862849</v>
+        <v>13.04285840744984</v>
       </c>
       <c r="F20">
-        <v>29.09291563973115</v>
+        <v>25.10431981488458</v>
       </c>
       <c r="G20">
-        <v>3.648651343791997</v>
+        <v>2.053846991848578</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.67197821149468</v>
+        <v>25.2529081856657</v>
       </c>
       <c r="L20">
-        <v>9.27068728427772</v>
+        <v>6.509468103022932</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.3340050570213</v>
+        <v>11.6463311741873</v>
       </c>
       <c r="O20">
-        <v>25.71142522411711</v>
+        <v>19.2341629864026</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>14.02842111755956</v>
+        <v>14.94338131820432</v>
       </c>
       <c r="D21">
-        <v>5.712992280764224</v>
+        <v>4.197075086552156</v>
       </c>
       <c r="E21">
-        <v>14.22351127900741</v>
+        <v>13.69463726593818</v>
       </c>
       <c r="F21">
-        <v>29.18233872047874</v>
+        <v>26.22068569493227</v>
       </c>
       <c r="G21">
-        <v>3.645761972581509</v>
+        <v>2.045203955845186</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.24904762374977</v>
+        <v>26.81733987960676</v>
       </c>
       <c r="L21">
-        <v>9.278851741096931</v>
+        <v>6.705504686239686</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.28518733342486</v>
+        <v>11.50604375557466</v>
       </c>
       <c r="O21">
-        <v>25.69936559975084</v>
+        <v>19.86434653325258</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>14.13337942232257</v>
+        <v>15.43712601256975</v>
       </c>
       <c r="D22">
-        <v>5.720767259184653</v>
+        <v>4.225381155568187</v>
       </c>
       <c r="E22">
-        <v>14.29555627801474</v>
+        <v>14.11496275899058</v>
       </c>
       <c r="F22">
-        <v>29.24855376970643</v>
+        <v>26.958442567799</v>
       </c>
       <c r="G22">
-        <v>3.64394333983695</v>
+        <v>2.039616301558324</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.61792103918674</v>
+        <v>27.7991857956682</v>
       </c>
       <c r="L22">
-        <v>9.285538399093815</v>
+        <v>6.835289228532851</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.25492172857994</v>
+        <v>11.41852168462352</v>
       </c>
       <c r="O22">
-        <v>25.69779050567092</v>
+        <v>20.29281601739253</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>14.07719235962186</v>
+        <v>15.17449341400554</v>
       </c>
       <c r="D23">
-        <v>5.716615220111991</v>
+        <v>4.210292941900728</v>
       </c>
       <c r="E23">
-        <v>14.25689302064259</v>
+        <v>13.89115501255283</v>
       </c>
       <c r="F23">
-        <v>29.21250567372233</v>
+        <v>26.56396224869583</v>
       </c>
       <c r="G23">
-        <v>3.644907618420558</v>
+        <v>2.042593495127789</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>18.42183914914893</v>
+        <v>27.27883233661206</v>
       </c>
       <c r="L23">
-        <v>9.281846379884163</v>
+        <v>6.765871208561077</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.27092521999594</v>
+        <v>11.46484070262891</v>
       </c>
       <c r="O23">
-        <v>25.69805321691519</v>
+        <v>20.06260376755075</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.86826693985713</v>
+        <v>14.16043534628154</v>
       </c>
       <c r="D24">
-        <v>5.700946257784739</v>
+        <v>4.152746457584533</v>
       </c>
       <c r="E24">
-        <v>14.115202040853</v>
+        <v>13.03211312565439</v>
       </c>
       <c r="F24">
-        <v>29.09158593702509</v>
+        <v>25.08621639467762</v>
       </c>
       <c r="G24">
-        <v>3.648699751126379</v>
+        <v>2.053989406197481</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.66241490270146</v>
+        <v>25.22664450562186</v>
       </c>
       <c r="L24">
-        <v>9.27057672065898</v>
+        <v>6.506292774960985</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.33483068087679</v>
+        <v>11.64869181638027</v>
       </c>
       <c r="O24">
-        <v>25.71172857662171</v>
+        <v>19.22414122372052</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.65221614420454</v>
+        <v>13.02677726284237</v>
       </c>
       <c r="D25">
-        <v>5.684188903628498</v>
+        <v>4.089956361333984</v>
       </c>
       <c r="E25">
-        <v>13.97306688076373</v>
+        <v>12.08297993682624</v>
       </c>
       <c r="F25">
-        <v>28.99478963386195</v>
+        <v>23.53015943242645</v>
       </c>
       <c r="G25">
-        <v>3.653091748678894</v>
+        <v>2.066595056740532</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.81165240486593</v>
+        <v>22.83500495924285</v>
       </c>
       <c r="L25">
-        <v>9.26425215446756</v>
+        <v>6.233811433280021</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.41082274125345</v>
+        <v>11.86378263147052</v>
       </c>
       <c r="O25">
-        <v>25.75344205684616</v>
+        <v>18.3901135175942</v>
       </c>
     </row>
   </sheetData>
